--- a/template/jg.xlsx
+++ b/template/jg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B42A8C-4ADA-4914-B468-08558C6A69BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF9C7B0-B600-4E4A-BAA5-4207757A7E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="7095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="29100" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>序号</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -153,19 +157,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,63 +509,67 @@
     <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/jg.xlsx
+++ b/template/jg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF9C7B0-B600-4E4A-BAA5-4207757A7E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1561B-CD70-479A-BF90-15E6BD405DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="29100" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常务副会长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副秘书长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监事长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,48 +169,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,16 +181,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,35 +464,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,33 +514,42 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
